--- a/docs/DB定義書.xlsx
+++ b/docs/DB定義書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamada_t\Dropbox\研修\02.アプリ開発\3.詳細設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserTemp\git\entrance\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29850" windowHeight="12460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29850" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="150">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -470,6 +470,20 @@
   </si>
   <si>
     <t>ユーザーマスタ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>空気清浄機OFF</t>
+    <rPh sb="0" eb="2">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セイジョウキ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>LEAVE_AIRCLEANER</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1227,193 +1241,193 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1704,19 +1718,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="30.58203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="30.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1730,7 +1744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1742,14 +1756,14 @@
       </c>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="45" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6"/>
@@ -1774,1098 +1788,1076 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.58203125" style="13" customWidth="1"/>
-    <col min="3" max="4" width="14.58203125" style="13" customWidth="1"/>
-    <col min="5" max="6" width="8.58203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.58203125" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="13" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="13" customWidth="1"/>
+    <col min="5" max="6" width="8.625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.625" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="73"/>
+      <c r="E2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="G2" s="76"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="34" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
+      <c r="G3" s="77"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="77"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="34" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="32" t="s">
+      <c r="G5" s="77"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+      <c r="D6" s="75"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="77"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="30"/>
-    </row>
-    <row r="12" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="60"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>1</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F16" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>6</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F19" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>7</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>8</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>9</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>10</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>11</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>12</v>
       </c>
-      <c r="B25" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="39" t="s">
+      <c r="B25" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G25" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>13</v>
       </c>
-      <c r="B26" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="39" t="s">
+      <c r="B26" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>14</v>
       </c>
-      <c r="B27" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="39" t="s">
+      <c r="B27" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G27" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>15</v>
       </c>
-      <c r="B28" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="39" t="s">
+      <c r="B28" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G28" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>16</v>
       </c>
-      <c r="B29" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="39" t="s">
+      <c r="B29" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F29" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>17</v>
       </c>
-      <c r="B30" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="39" t="s">
+      <c r="B30" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F30" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>18</v>
       </c>
-      <c r="B31" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="39" t="s">
+      <c r="B31" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F31" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>19</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>20</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C33" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D33" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E33" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
+      <c r="F33" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>21</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20">
+        <v>1</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="65"/>
+      <c r="E38" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="40" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="38"/>
+      <c r="E41" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="67"/>
+      <c r="G41" s="39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="38"/>
+      <c r="E44" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="67"/>
+      <c r="G44" s="39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="D47" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="41"/>
+    </row>
+    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="42">
+        <v>1</v>
+      </c>
+      <c r="B48" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="69"/>
+      <c r="D48" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="71"/>
+    </row>
+    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="43">
+        <v>2</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="47"/>
+      <c r="D49" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
+    </row>
+    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="43">
+        <v>3</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="47"/>
+      <c r="D50" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="43">
+        <v>4</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="47"/>
+      <c r="D51" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="49"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="43">
+        <v>5</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="47"/>
+      <c r="D52" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="49"/>
+    </row>
+    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="43">
+        <v>6</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="47"/>
+      <c r="D53" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="49"/>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="43">
+        <v>7</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="47"/>
+      <c r="D54" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="49"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="43">
+        <v>8</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="47"/>
+      <c r="D55" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="49"/>
+    </row>
+    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="43">
+        <v>9</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="47"/>
+      <c r="D56" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="49"/>
+    </row>
+    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="43">
+        <v>10</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="47"/>
+      <c r="D57" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="49"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="43">
+        <v>11</v>
+      </c>
+      <c r="B58" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="47"/>
+      <c r="D58" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="49"/>
+    </row>
+    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="43">
+        <v>12</v>
+      </c>
+      <c r="B59" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="47"/>
+      <c r="D59" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="49"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="43">
+        <v>13</v>
+      </c>
+      <c r="B60" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="47"/>
+      <c r="D60" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="49"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="43">
+        <v>14</v>
+      </c>
+      <c r="B61" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="47"/>
+      <c r="D61" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="49"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="43">
+        <v>15</v>
+      </c>
+      <c r="B62" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="47"/>
+      <c r="D62" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="49"/>
+    </row>
+    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="43">
+        <v>16</v>
+      </c>
+      <c r="B63" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="47"/>
+      <c r="D63" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="49"/>
+    </row>
+    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="43">
+        <v>17</v>
+      </c>
+      <c r="B64" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="47"/>
+      <c r="D64" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="49"/>
+    </row>
+    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="43">
+        <v>18</v>
+      </c>
+      <c r="B65" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="47"/>
+      <c r="D65" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="49"/>
+    </row>
+    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="43">
+        <v>19</v>
+      </c>
+      <c r="B66" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="47"/>
+      <c r="D66" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="49"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="43">
         <v>20</v>
       </c>
-      <c r="B33" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="50"/>
-      <c r="E36" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G36" s="42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="36">
-        <v>1</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="38"/>
-    </row>
-    <row r="39" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="58"/>
-      <c r="G40" s="59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="58"/>
-      <c r="G43" s="59" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="61"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="71">
-        <v>1</v>
-      </c>
-      <c r="B47" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="72"/>
-      <c r="D47" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="64"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="73">
-        <v>2</v>
-      </c>
-      <c r="B48" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="74"/>
-      <c r="D48" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
-    </row>
-    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="73">
-        <v>3</v>
-      </c>
-      <c r="B49" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="74"/>
-      <c r="D49" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="73">
-        <v>4</v>
-      </c>
-      <c r="B50" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" s="74"/>
-      <c r="D50" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
-    </row>
-    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="73">
+      <c r="B67" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="47"/>
+      <c r="D67" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="49"/>
+    </row>
+    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="44">
+        <v>21</v>
+      </c>
+      <c r="B68" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="51"/>
+      <c r="D68" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="73">
-        <v>6</v>
-      </c>
-      <c r="B52" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="74"/>
-      <c r="D52" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="73">
-        <v>7</v>
-      </c>
-      <c r="B53" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="73">
-        <v>8</v>
-      </c>
-      <c r="B54" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="74"/>
-      <c r="D54" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
-    </row>
-    <row r="55" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="73">
-        <v>9</v>
-      </c>
-      <c r="B55" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="67"/>
-    </row>
-    <row r="56" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="73">
-        <v>10</v>
-      </c>
-      <c r="B56" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="74"/>
-      <c r="D56" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="67"/>
-    </row>
-    <row r="57" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="73">
-        <v>11</v>
-      </c>
-      <c r="B57" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="74"/>
-      <c r="D57" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="67"/>
-    </row>
-    <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="73">
-        <v>12</v>
-      </c>
-      <c r="B58" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="74"/>
-      <c r="D58" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="E58" s="66"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="67"/>
-    </row>
-    <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="73">
-        <v>13</v>
-      </c>
-      <c r="B59" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" s="74"/>
-      <c r="D59" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="67"/>
-    </row>
-    <row r="60" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="73">
-        <v>14</v>
-      </c>
-      <c r="B60" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" s="74"/>
-      <c r="D60" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="67"/>
-    </row>
-    <row r="61" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="73">
-        <v>15</v>
-      </c>
-      <c r="B61" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="74"/>
-      <c r="D61" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="67"/>
-    </row>
-    <row r="62" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="73">
-        <v>16</v>
-      </c>
-      <c r="B62" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" s="74"/>
-      <c r="D62" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="67"/>
-    </row>
-    <row r="63" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="73">
-        <v>17</v>
-      </c>
-      <c r="B63" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="74"/>
-      <c r="D63" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="67"/>
-    </row>
-    <row r="64" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="73">
-        <v>18</v>
-      </c>
-      <c r="B64" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="74"/>
-      <c r="D64" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="67"/>
-    </row>
-    <row r="65" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="73">
-        <v>19</v>
-      </c>
-      <c r="B65" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="74"/>
-      <c r="D65" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="67"/>
-    </row>
-    <row r="66" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="73">
-        <v>20</v>
-      </c>
-      <c r="B66" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" s="74"/>
-      <c r="D66" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="67"/>
-    </row>
-    <row r="67" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="75">
-        <v>21</v>
-      </c>
-      <c r="B67" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" s="76"/>
-      <c r="D67" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="70"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -2876,6 +2868,51 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:G66"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2896,747 +2933,702 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.58203125" style="13" customWidth="1"/>
-    <col min="3" max="4" width="14.58203125" style="13" customWidth="1"/>
-    <col min="5" max="6" width="8.58203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="28.58203125" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="13" customWidth="1"/>
+    <col min="3" max="4" width="14.625" style="13" customWidth="1"/>
+    <col min="5" max="6" width="8.625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="28.625" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="73"/>
+      <c r="E2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+      <c r="G2" s="76"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="34" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
+      <c r="G3" s="77"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="77"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="34" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="32" t="s">
+      <c r="G5" s="77"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+      <c r="D6" s="75"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="77"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="30"/>
-    </row>
-    <row r="12" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="60"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>1</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F16" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>5</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="33" t="s">
+      <c r="D21" s="34"/>
+      <c r="E21" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="36">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
         <v>1</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="37" t="s">
+      <c r="D22" s="65"/>
+      <c r="E22" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="24" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="22"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="53" t="s">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57" t="s">
+      <c r="D25" s="38"/>
+      <c r="E25" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59" t="s">
+      <c r="F25" s="67"/>
+      <c r="G25" s="39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="53" t="s">
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57" t="s">
+      <c r="D28" s="38"/>
+      <c r="E28" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="58"/>
-      <c r="G28" s="59" t="s">
+      <c r="F28" s="67"/>
+      <c r="G28" s="39" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="49" t="s">
+      <c r="C31" s="34"/>
+      <c r="D31" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="61"/>
-    </row>
-    <row r="32" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="71">
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="42">
         <v>1</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="62" t="s">
+      <c r="C32" s="69"/>
+      <c r="D32" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="64"/>
-    </row>
-    <row r="33" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="73">
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="71"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="43">
         <v>2</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="65" t="s">
+      <c r="C33" s="47"/>
+      <c r="D33" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="67"/>
-    </row>
-    <row r="34" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="73">
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="49"/>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="43">
         <v>3</v>
       </c>
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="65" t="s">
+      <c r="C34" s="47"/>
+      <c r="D34" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="67"/>
-    </row>
-    <row r="35" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="73">
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="49"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="43">
         <v>4</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="74"/>
-      <c r="D35" s="65" t="s">
+      <c r="C35" s="47"/>
+      <c r="D35" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="67"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="73">
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="49"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="43">
         <v>5</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="65" t="s">
+      <c r="C36" s="47"/>
+      <c r="D36" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67"/>
-    </row>
-    <row r="37" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="73">
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="43">
         <v>6</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="65" t="s">
+      <c r="C37" s="47"/>
+      <c r="D37" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="67"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="73">
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="49"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="43">
         <v>7</v>
       </c>
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="65" t="s">
+      <c r="C38" s="47"/>
+      <c r="D38" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="67"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="73">
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="49"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="43">
         <v>8</v>
       </c>
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="65" t="s">
+      <c r="C39" s="47"/>
+      <c r="D39" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="73">
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="49"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="43">
         <v>9</v>
       </c>
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="74"/>
-      <c r="D40" s="65" t="s">
+      <c r="C40" s="47"/>
+      <c r="D40" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
-    </row>
-    <row r="41" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="73">
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="49"/>
+    </row>
+    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="43">
         <v>10</v>
       </c>
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="74"/>
-      <c r="D41" s="65" t="s">
+      <c r="C41" s="47"/>
+      <c r="D41" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
-    </row>
-    <row r="42" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="73">
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="49"/>
+    </row>
+    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="43">
         <v>11</v>
       </c>
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="65" t="s">
+      <c r="C42" s="47"/>
+      <c r="D42" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="67"/>
-    </row>
-    <row r="43" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="73">
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49"/>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="43">
         <v>12</v>
       </c>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="74"/>
-      <c r="D43" s="65" t="s">
+      <c r="C43" s="47"/>
+      <c r="D43" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="73">
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="49"/>
+    </row>
+    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="43">
         <v>13</v>
       </c>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="74"/>
-      <c r="D44" s="65" t="s">
+      <c r="C44" s="47"/>
+      <c r="D44" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="67"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="73">
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49"/>
+    </row>
+    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="43">
         <v>14</v>
       </c>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="74"/>
-      <c r="D45" s="65" t="s">
+      <c r="C45" s="47"/>
+      <c r="D45" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="73">
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="49"/>
+    </row>
+    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="43">
         <v>15</v>
       </c>
-      <c r="B46" s="65" t="s">
+      <c r="B46" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="74"/>
-      <c r="D46" s="65" t="s">
+      <c r="C46" s="47"/>
+      <c r="D46" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="73">
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49"/>
+    </row>
+    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="43">
         <v>16</v>
       </c>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="74"/>
-      <c r="D47" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="67"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="73">
+      <c r="C47" s="47"/>
+      <c r="D47" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
+    </row>
+    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="43">
         <v>17</v>
       </c>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="74"/>
-      <c r="D48" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
-    </row>
-    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="73">
+      <c r="C48" s="47"/>
+      <c r="D48" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="49"/>
+    </row>
+    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="43">
         <v>18</v>
       </c>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="74"/>
-      <c r="D49" s="65" t="s">
+      <c r="C49" s="47"/>
+      <c r="D49" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
-    </row>
-    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="73">
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
+    </row>
+    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="43">
         <v>19</v>
       </c>
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="74"/>
-      <c r="D50" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
-    </row>
-    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="73">
+      <c r="C50" s="47"/>
+      <c r="D50" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="43">
         <v>20</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
-    </row>
-    <row r="52" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="75">
-        <v>21</v>
-      </c>
-      <c r="B52" s="68" t="s">
+      <c r="C51" s="47"/>
+      <c r="D51" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="49"/>
+    </row>
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="44">
+        <v>21</v>
+      </c>
+      <c r="B52" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="76"/>
-      <c r="D52" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="70"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E28:F28"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="C2:D2"/>
@@ -3649,6 +3641,51 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
